--- a/Templates/SimpleInvoiceJP_Template.xlsx
+++ b/Templates/SimpleInvoiceJP_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fmasayuki/Documents/DioDocs/DioDocs-Samples/excel/ExcelTemplate_report/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fmasayuki/Downloads/_RDPShare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F553D4-3B2E-5B42-B444-95FDA6343B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A821E9D-CBE4-8F4D-82C4-4FDF3A045D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25400" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,15 +290,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">{{(form={"type": "textbox", "name": "bikou", "multiline":true, "font":{"size":8, "name":"IPA P明朝"}})}}
-</t>
+    <t>{{ds.detail.sku(FM=overwrite)}}</t>
+  </si>
+  <si>
+    <t>{{ds.detail.unit(C=A18)}}</t>
+  </si>
+  <si>
+    <t>{{Env}}</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{{ds.detail.sku(FM=overwrite)}}</t>
-  </si>
-  <si>
-    <t>{{ds.detail.unit(C=A18)}}</t>
   </si>
 </sst>
 </file>
@@ -311,7 +310,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -408,6 +407,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="3" tint="0.39994506668294322"/>
+      <name val="IBM Plex Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -796,90 +802,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,7 +1232,7 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1248,7 +1254,7 @@
       </c>
       <c r="I1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44404</v>
+        <v>44406</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -1266,7 +1272,7 @@
       </c>
       <c r="H3" s="6" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMMS") + RANDBETWEEN(1,99)</f>
-        <v>27-191992</v>
+        <v>29-154975</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>31</v>
@@ -1550,20 +1556,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="28" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10" style="28" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="28" customWidth="1"/>
     <col min="6" max="6" width="12" style="28" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="28" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="28" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" style="28" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" style="28" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="28"/>
@@ -1575,7 +1582,7 @@
       </c>
       <c r="J1" s="16">
         <f ca="1">TODAY()</f>
-        <v>44404</v>
+        <v>44406</v>
       </c>
       <c r="K1" s="31"/>
     </row>
@@ -1593,7 +1600,7 @@
       </c>
       <c r="I3" s="17" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMMS") + RANDBETWEEN(1,99)</f>
-        <v>27-191963</v>
+        <v>29-154972</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>31</v>
@@ -1612,11 +1619,11 @@
         <v>23</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="20"/>
       <c r="K5" s="32"/>
     </row>
@@ -1625,6 +1632,7 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:11" ht="12" customHeight="1"/>
     <row r="8" spans="1:11">
       <c r="A8" s="28" t="s">
         <v>25</v>
@@ -1682,13 +1690,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="60"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="22" t="s">
         <v>3</v>
       </c>
@@ -1698,267 +1706,267 @@
       <c r="H17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="89"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="74"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="81"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="83"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="81"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="81"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="83"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="81"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="83"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="78" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="23" t="s">
@@ -1976,7 +1984,7 @@
       <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" ht="24">
-      <c r="C39" s="57"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
       <c r="F39" s="25" t="s">
@@ -1992,93 +2000,147 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="60"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="89"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
+      <c r="A43" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="82"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="85"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="85"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="85"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="85"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="86"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J48"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="I22:J23"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A20:D20"/>
@@ -2093,58 +2155,16 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:J29"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -2155,15 +2175,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DirectSourceMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">english</DirectSourceMarket>
@@ -2299,6 +2310,15 @@
     <LocMarketGroupTiers2 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3342,14 +3362,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3361,6 +3373,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Templates/SimpleInvoiceJP_Template.xlsx
+++ b/Templates/SimpleInvoiceJP_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos_DioDocsExcel\dd_excel_template_report\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos_DioDocExcel\dde_template_report\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71326B2-C9FF-44CF-9414-0352B79E5C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD99886-CCA5-41A2-95C6-A1F7EA08DC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1215" windowWidth="21885" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="1965" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{{ds.companyname}} " sheetId="1" r:id="rId1"/>
@@ -162,11 +162,11 @@
   </si>
   <si>
     <t>{{==BC_EAN8(A18)}}</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>{{==BC_QRCODE(I3)}}</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -231,13 +231,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="IBM Plex Sans JP"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -251,6 +244,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="IBM Plex Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="IBM Plex Sans JP"/>
       <family val="2"/>
       <charset val="128"/>
@@ -547,110 +547,110 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -959,9 +959,7 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -982,7 +980,7 @@
       </c>
       <c r="J1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>45582</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -1002,7 +1000,7 @@
       <c r="C3" s="15"/>
       <c r="I3" s="3" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMMS")+RANDBETWEEN(1,99)</f>
-        <v>19-10273</v>
+        <v>17-93637</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>4</v>
@@ -1017,7 +1015,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1028,13 +1026,13 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="5"/>
-      <c r="J5" s="58"/>
+      <c r="J5" s="49"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
@@ -1113,13 +1111,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="13" t="s">
         <v>23</v>
       </c>
@@ -1129,10 +1127,10 @@
       <c r="H17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
@@ -1389,7 +1387,7 @@
       <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -1407,7 +1405,7 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="46"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="18"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20" t="s">
@@ -1423,105 +1421,148 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="47"/>
-    </row>
-    <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="48" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="50"/>
-    </row>
-    <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="56"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+    </row>
+    <row r="45" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55"/>
+    </row>
+    <row r="48" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J48"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="I34:J35"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A32:D32"/>
@@ -1536,61 +1577,18 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:J29"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J48"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Templates/SimpleInvoiceJP_Template.xlsx
+++ b/Templates/SimpleInvoiceJP_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos_DioDocsExcel\dd_excel_template_report\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos_DioDocExcel\dde_template_report\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71326B2-C9FF-44CF-9414-0352B79E5C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F55E63B-220D-4888-B506-E12656D5FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1215" windowWidth="21885" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="1965" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{{ds.companyname}} " sheetId="1" r:id="rId1"/>
@@ -162,11 +162,11 @@
   </si>
   <si>
     <t>{{==BC_EAN8(A18)}}</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>{{==BC_QRCODE(I3)}}</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -231,13 +231,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="IBM Plex Sans JP"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -255,6 +248,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="IPAゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -547,16 +547,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,6 +625,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,23 +640,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -959,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K43" sqref="A43:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="J1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44914</v>
+        <v>45582</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="C3" s="15"/>
       <c r="I3" s="3" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMMS")+RANDBETWEEN(1,99)</f>
-        <v>19-10273</v>
+        <v>17-10129</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>4</v>
@@ -1017,7 +1017,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="45" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="5"/>
-      <c r="J5" s="58"/>
+      <c r="J5" s="46"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
@@ -1389,7 +1389,7 @@
       <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="47" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -1407,7 +1407,7 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="46"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="18"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20" t="s">
@@ -1434,81 +1434,81 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="47"/>
-    </row>
-    <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="48" t="s">
+      <c r="J42" s="49"/>
+    </row>
+    <row r="43" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="50"/>
-    </row>
-    <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="56"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+    </row>
+    <row r="45" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55"/>
+    </row>
+    <row r="48" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -1590,7 +1590,7 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="J4:J5"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Templates/SimpleInvoiceJP_Template.xlsx
+++ b/Templates/SimpleInvoiceJP_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos_DioDocExcel\dde_template_report\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F55E63B-220D-4888-B506-E12656D5FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E5BF41-AE09-48D9-8016-1021F0A9B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1965" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K43" sqref="A43:XFD48"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.45"/>
